--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N2">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q2">
-        <v>129.5584529329171</v>
+        <v>10.85962386315978</v>
       </c>
       <c r="R2">
-        <v>1166.026076396254</v>
+        <v>97.73661476843802</v>
       </c>
       <c r="S2">
-        <v>0.05261915465750594</v>
+        <v>0.004936900296065489</v>
       </c>
       <c r="T2">
-        <v>0.05261915465750595</v>
+        <v>0.00493690029606549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H3">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q3">
-        <v>274.7363339441962</v>
+        <v>323.648881002008</v>
       </c>
       <c r="R3">
-        <v>2472.627005497766</v>
+        <v>2912.839929018072</v>
       </c>
       <c r="S3">
-        <v>0.1115820181438189</v>
+        <v>0.1471342172228022</v>
       </c>
       <c r="T3">
-        <v>0.1115820181438189</v>
+        <v>0.1471342172228022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H4">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P4">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q4">
-        <v>375.5889698943046</v>
+        <v>442.4567660121697</v>
       </c>
       <c r="R4">
-        <v>3380.300729048742</v>
+        <v>3982.110894109528</v>
       </c>
       <c r="S4">
-        <v>0.1525425292377855</v>
+        <v>0.2011455430359707</v>
       </c>
       <c r="T4">
-        <v>0.1525425292377855</v>
+        <v>0.2011455430359707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J5">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N5">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q5">
-        <v>239.0810645408463</v>
+        <v>17.01124892443933</v>
       </c>
       <c r="R5">
-        <v>2151.729580867617</v>
+        <v>153.101240319954</v>
       </c>
       <c r="S5">
-        <v>0.09710090870928942</v>
+        <v>0.007733494355767876</v>
       </c>
       <c r="T5">
-        <v>0.09710090870928943</v>
+        <v>0.007733494355767876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q6">
         <v>506.9854857053437</v>
@@ -818,10 +818,10 @@
         <v>4562.869371348093</v>
       </c>
       <c r="S6">
-        <v>0.2059081987900332</v>
+        <v>0.2304809840578906</v>
       </c>
       <c r="T6">
-        <v>0.2059081987900332</v>
+        <v>0.2304809840578906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J7">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P7">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q7">
         <v>693.0941881393491</v>
       </c>
       <c r="R7">
-        <v>6237.847693254142</v>
+        <v>6237.847693254141</v>
       </c>
       <c r="S7">
-        <v>0.2814947959961085</v>
+        <v>0.3150879759504686</v>
       </c>
       <c r="T7">
-        <v>0.2814947959961087</v>
+        <v>0.3150879759504685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>77.473134</v>
       </c>
       <c r="I8">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J8">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N8">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q8">
-        <v>40.39293399679399</v>
+        <v>2.874063892628</v>
       </c>
       <c r="R8">
-        <v>363.5364059711459</v>
+        <v>25.866575033652</v>
       </c>
       <c r="S8">
-        <v>0.01640527493909059</v>
+        <v>0.001306579957208371</v>
       </c>
       <c r="T8">
-        <v>0.0164052749390906</v>
+        <v>0.001306579957208371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>77.473134</v>
       </c>
       <c r="I9">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J9">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q9">
         <v>85.655596777426</v>
@@ -1004,10 +1004,10 @@
         <v>770.9003709968341</v>
       </c>
       <c r="S9">
-        <v>0.03478835222311624</v>
+        <v>0.03893994363144535</v>
       </c>
       <c r="T9">
-        <v>0.03478835222311624</v>
+        <v>0.03893994363144535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>77.473134</v>
       </c>
       <c r="I10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P10">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q10">
         <v>117.098808510162</v>
@@ -1066,10 +1066,10 @@
         <v>1053.889276591458</v>
       </c>
       <c r="S10">
-        <v>0.04755876730325167</v>
+        <v>0.05323436149238101</v>
       </c>
       <c r="T10">
-        <v>0.04755876730325168</v>
+        <v>0.053234361492381</v>
       </c>
     </row>
   </sheetData>
